--- a/tag sampling/sample_distribution.xlsx
+++ b/tag sampling/sample_distribution.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\P.A. Ruben\Desktop\thesis SEC\1 - SE data\gis.SE.thesis\tag sampling\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E21ECCD4-7E07-4CA5-AB36-7AD441706D0C}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48D90DE5-3F95-4C48-A0D7-C6BC8180D1A2}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{84E9713C-967D-4FAD-8B2B-11ADA1DB4278}"/>
   </bookViews>
@@ -16,6 +16,18 @@
     <sheet name="q_comments" sheetId="1" r:id="rId1"/>
     <sheet name="a_comments" sheetId="2" r:id="rId2"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlchart.v1.0" hidden="1">a_comments!$A$2:$A$10</definedName>
+    <definedName name="_xlchart.v1.1" hidden="1">a_comments!$B$1</definedName>
+    <definedName name="_xlchart.v1.2" hidden="1">a_comments!$B$2:$B$10</definedName>
+    <definedName name="_xlchart.v1.3" hidden="1">a_comments!$A$1</definedName>
+    <definedName name="_xlchart.v1.4" hidden="1">a_comments!$A$2:$A$10</definedName>
+    <definedName name="_xlchart.v1.5" hidden="1">a_comments!$B$1</definedName>
+    <definedName name="_xlchart.v1.6" hidden="1">a_comments!$B$2:$B$10</definedName>
+    <definedName name="_xlchart.v1.7" hidden="1">a_comments!$A$2:$A$10</definedName>
+    <definedName name="_xlchart.v1.8" hidden="1">a_comments!$B$1</definedName>
+    <definedName name="_xlchart.v1.9" hidden="1">a_comments!$B$2:$B$10</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -32,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="6">
   <si>
     <t>number of c</t>
   </si>
@@ -47,6 +59,9 @@
   </si>
   <si>
     <t>total</t>
+  </si>
+  <si>
+    <t>number of comments on answers</t>
   </si>
 </sst>
 </file>
@@ -108,6 +123,938 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-GB"/>
+              <a:t>Distribution of the</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-GB" baseline="0"/>
+              <a:t> number of answers with a given comment number </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-GB" sz="900" baseline="0"/>
+              <a:t>(only elligible cases, thus for '2' only if 2nd comments is answer author)</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-GB"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>a_comments!$A$2:$A$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>10</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>a_comments!$B$2:$B$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>3667</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2897</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1856</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1096</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>716</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>477</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>294</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>188</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>118</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-7E23-4697-83DD-78BF9507F5F6}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="376444760"/>
+        <c:axId val="522584816"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="376444760"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="522584816"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="522584816"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="376444760"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>373380</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>87630</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>68580</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>87630</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{18C0BB1A-42E5-4AD3-B342-E61B56970DBC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -410,7 +1357,7 @@
   <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -461,11 +1408,11 @@
         <v>5144</v>
       </c>
       <c r="C3">
-        <f t="shared" ref="C3:C11" si="0">B3/$B$12</f>
+        <f t="shared" ref="C3:C10" si="0">B3/$B$12</f>
         <v>0.27019644920684943</v>
       </c>
       <c r="D3">
-        <f t="shared" ref="D3:D11" si="1">C3*50</f>
+        <f t="shared" ref="D3:D10" si="1">C3*50</f>
         <v>13.509822460342471</v>
       </c>
       <c r="E3">
@@ -629,19 +1576,19 @@
   <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11:XFD11"/>
+      <selection activeCell="O10" sqref="O10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="12" customWidth="1"/>
     <col min="2" max="2" width="15" customWidth="1"/>
-    <col min="4" max="4" width="15.77734375" customWidth="1"/>
+    <col min="4" max="4" width="15.77734375" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
@@ -661,7 +1608,7 @@
         <v>3667</v>
       </c>
       <c r="C2">
-        <f>B2/$B$11</f>
+        <f t="shared" ref="C2:C10" si="0">B2/$B$11</f>
         <v>0.32425501812715535</v>
       </c>
       <c r="D2">
@@ -680,11 +1627,11 @@
         <v>2897</v>
       </c>
       <c r="C3">
-        <f>B3/$B$11</f>
+        <f t="shared" si="0"/>
         <v>0.25616765408082059</v>
       </c>
       <c r="D3">
-        <f t="shared" ref="D3:D10" si="0">C3*50</f>
+        <f t="shared" ref="D3:D10" si="1">C3*50</f>
         <v>12.80838270404103</v>
       </c>
       <c r="E3">
@@ -699,11 +1646,11 @@
         <v>1856</v>
       </c>
       <c r="C4">
-        <f>B4/$B$11</f>
+        <f t="shared" si="0"/>
         <v>0.16411707489610045</v>
       </c>
       <c r="D4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>8.2058537448050224</v>
       </c>
       <c r="E4">
@@ -718,11 +1665,11 @@
         <v>1096</v>
       </c>
       <c r="C5">
-        <f>B5/$B$11</f>
+        <f t="shared" si="0"/>
         <v>9.6913962330886907E-2</v>
       </c>
       <c r="D5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>4.8456981165443453</v>
       </c>
       <c r="E5">
@@ -737,11 +1684,11 @@
         <v>716</v>
       </c>
       <c r="C6">
-        <f>B6/$B$11</f>
+        <f t="shared" si="0"/>
         <v>6.3312406048280132E-2</v>
       </c>
       <c r="D6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>3.1656203024140064</v>
       </c>
       <c r="E6">
@@ -756,11 +1703,11 @@
         <v>477</v>
       </c>
       <c r="C7">
-        <f>B7/$B$11</f>
+        <f t="shared" si="0"/>
         <v>4.2178795649482716E-2</v>
       </c>
       <c r="D7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2.1089397824741356</v>
       </c>
       <c r="E7">
@@ -775,11 +1722,11 @@
         <v>294</v>
       </c>
       <c r="C8">
-        <f>B8/$B$11</f>
+        <f t="shared" si="0"/>
         <v>2.5996993544964188E-2</v>
       </c>
       <c r="D8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.2998496772482093</v>
       </c>
       <c r="E8">
@@ -794,11 +1741,11 @@
         <v>188</v>
       </c>
       <c r="C9">
-        <f>B9/$B$11</f>
+        <f t="shared" si="0"/>
         <v>1.6623927845079142E-2</v>
       </c>
       <c r="D9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.83119639225395714</v>
       </c>
       <c r="E9">
@@ -813,11 +1760,11 @@
         <v>118</v>
       </c>
       <c r="C10">
-        <f>B10/$B$11</f>
+        <f t="shared" si="0"/>
         <v>1.0434167477230524E-2</v>
       </c>
       <c r="D10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.52170837386152613</v>
       </c>
       <c r="E10">
@@ -839,5 +1786,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>